--- a/src/main/kotlin/parse/mobyGames/output/mobyGames.xlsx
+++ b/src/main/kotlin/parse/mobyGames/output/mobyGames.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ggredinare/personal/kotlin-web-scraping/kotlin-web-scraping/src/main/kotlin/parse/mobyGames/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7148120-FF36-9B4F-9546-B717CBBCE050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51A2F45-E674-A14C-82B6-42FBB63C6269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40960" yWindow="1300" windowWidth="38400" windowHeight="21100" xr2:uid="{DF05A7DD-9190-744F-A539-C99A1D6AA0CC}"/>
   </bookViews>
